--- a/biology/Zoologie/Eupithecia_virgaureata/Eupithecia_virgaureata.xlsx
+++ b/biology/Zoologie/Eupithecia_virgaureata/Eupithecia_virgaureata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupithecia virgaureata, l’Eupithécie de la verge d'or, est une espèce de lépidoptères (papillons) de la famille des Geometridae et de la sous-famille des Larentiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon Eupithecia virgaureata a été décrit pour la première fois par l'entomologiste Henry Doubleday en 1861[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon Eupithecia virgaureata a été décrit pour la première fois par l'entomologiste Henry Doubleday en 1861.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est largement répandue dans l'écozone paléarctique. L'espèce est présente sur l'ensemble des Îles Britanniques mais surtout distribuée localement.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papillon a une envergure de 17 à 20 mm. Les ailes antérieures sont gris pâle ou foncées, occasionnellement d'une teinte ocre, et sont marquées d'un petit tiret noir. Il n'y a pas de différences clairement visibles entre mâle et femelle, à part une faible différence de taille.
 La chenille a une bande longitudinale blanc jaunâtre de chaque côté du corps dessinant des vagues.
@@ -605,7 +623,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce peut produire plusieurs générations par an.
 Les chenilles se nourrissent d'astéracées (composées), comme le Séneçon commun (Senecio vulgaris) ou Solidago virgaurea. 
@@ -640,9 +660,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette espèce a plusieurs synonymes selon la BioLib                    (22 février 2023)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette espèce a plusieurs synonymes selon la BioLib                    (22 février 2023) :
 Eupithecia alternaria Staudinger, 1861
 Eupithecia invisa Butler, 1878
 Eupithecia offirmata Speyer, 1869</t>
